--- a/munkanaplo/munkanaplo.xlsx
+++ b/munkanaplo/munkanaplo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalmarkristof/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/anikeys/munkanaplo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ABC7196-FB5F-E647-9FCA-F747428AA3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F815351-D8EE-924A-BC7E-E04E5A907C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5160" yWindow="1300" windowWidth="39980" windowHeight="24840" xr2:uid="{887FEA99-DCDB-4888-A6E5-5E03AEB02C52}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>Időpont</t>
   </si>
@@ -98,6 +98,15 @@
   </si>
   <si>
     <t>Validitási hibák utólagos javítása</t>
+  </si>
+  <si>
+    <t>április 10-21</t>
+  </si>
+  <si>
+    <t>Napi váltással az összes html fájlt átkonvertáltuk php-ra, megírtuk a függvényeket, lekérdezéseket. A weboldalhoz az eddig nem megvalósítható oldalakat, részeket hozzáadtuk.</t>
+  </si>
+  <si>
+    <t>PHP hibakódok kezelése, adatok kezelése a szerver és a kliens között, képek kezelése</t>
   </si>
 </sst>
 </file>
@@ -610,7 +619,7 @@
   <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -715,8 +724,18 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="A8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="4"/>
